--- a/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
+++ b/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19140" windowHeight="7090"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="21720" windowHeight="14060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CDCF-PMpPDOU" sheetId="2" r:id="rId2"/>
     <sheet name="CDCF-FTMpFDOU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="km_per_mile">About!$A$16</definedName>
-  </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,25 +53,25 @@
     <t>freight distance output unit</t>
   </si>
   <si>
-    <t>freight ton-miles</t>
-  </si>
-  <si>
     <t>CDCF Freight Ton Miles per Freight Distance Output Unit</t>
   </si>
   <si>
+    <t>kilometers per mile</t>
+  </si>
+  <si>
     <t>For the Canada model, the desired output units are:</t>
   </si>
   <si>
-    <t>trillion passenger-km</t>
-  </si>
-  <si>
-    <t>trillion freight ton-km</t>
-  </si>
-  <si>
-    <t>Conversion factor</t>
-  </si>
-  <si>
-    <t>km per mile</t>
+    <t>trillion passenger-kilometers</t>
+  </si>
+  <si>
+    <t>trillion freight tonne-kilometers</t>
+  </si>
+  <si>
+    <t>tonnes per ton</t>
+  </si>
+  <si>
+    <t>freight tonne-miles</t>
   </si>
 </sst>
 </file>
@@ -129,6 +131,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -421,23 +426,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,124 +452,150 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>1.60934</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>0.90718500000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
-        <f>10^12*km_per_mile</f>
+        <f>10^12*About!A16</f>
         <v>1609340000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <f>10^12*km_per_mile</f>
-        <v>1609340000000</v>
+        <f>10^12*About!A16*About!A18</f>
+        <v>1459969107900</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
+++ b/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="21720" windowHeight="14060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19140" windowHeight="7090"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CDCF-PMpPDOU" sheetId="2" r:id="rId2"/>
     <sheet name="CDCF-FTMpFDOU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Source:</t>
   </si>
@@ -41,6 +36,15 @@
     <t>desired output unit.</t>
   </si>
   <si>
+    <t>For the U.S. model, the desired output units are:</t>
+  </si>
+  <si>
+    <t>trillion passenger-miles</t>
+  </si>
+  <si>
+    <t>trillion freight ton-miles</t>
+  </si>
+  <si>
     <t>CDCF Passenger Miles per Passenger Distance Output Unit</t>
   </si>
   <si>
@@ -53,25 +57,10 @@
     <t>freight distance output unit</t>
   </si>
   <si>
+    <t>freight ton-miles</t>
+  </si>
+  <si>
     <t>CDCF Freight Ton Miles per Freight Distance Output Unit</t>
-  </si>
-  <si>
-    <t>kilometers per mile</t>
-  </si>
-  <si>
-    <t>For the Canada model, the desired output units are:</t>
-  </si>
-  <si>
-    <t>trillion passenger-kilometers</t>
-  </si>
-  <si>
-    <t>trillion freight tonne-kilometers</t>
-  </si>
-  <si>
-    <t>tonnes per ton</t>
-  </si>
-  <si>
-    <t>freight tonne-miles</t>
   </si>
 </sst>
 </file>
@@ -131,9 +120,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -426,25 +412,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,150 +436,111 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1.60934</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>0.90718500000000002</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <f>10^12*About!A16</f>
-        <v>1609340000000</v>
+        <f>10^12</f>
+        <v>1000000000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <f>10^12*About!A16*About!A18</f>
-        <v>1459969107900</v>
+        <f>10^12</f>
+        <v>1000000000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
+++ b/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25311"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_68884C1E2F14BC299629DB3439E8343E69CEDF5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4A5DA8A-E3B5-4197-9CEF-692380DC355A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19140" windowHeight="7090"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19140" windowHeight="7090" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CDCF-PMpPDOU" sheetId="2" r:id="rId2"/>
     <sheet name="CDCF-FTMpFDOU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>CDCF Passenger Miles per Passenger Distance Output Unit</t>
+  </si>
+  <si>
+    <t>CDCF Freight Ton Miles per Freight Distance Output Unit</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
@@ -45,7 +64,10 @@
     <t>trillion freight ton-miles</t>
   </si>
   <si>
-    <t>CDCF Passenger Miles per Passenger Distance Output Unit</t>
+    <t xml:space="preserve">For canadian model: </t>
+  </si>
+  <si>
+    <t>km per mile conversion factor</t>
   </si>
   <si>
     <t>passenger distance output unit</t>
@@ -59,15 +81,12 @@
   <si>
     <t>freight ton-miles</t>
   </si>
-  <si>
-    <t>CDCF Freight Ton Miles per Freight Distance Output Unit</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,12 +103,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,10 +132,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -120,6 +145,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -168,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,9 +229,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,6 +281,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,64 +473,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>1.60934</v>
       </c>
     </row>
   </sheetData>
@@ -478,28 +558,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <f>10^12</f>
@@ -512,35 +594,321 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <f>10^12</f>
-        <v>1000000000000</v>
+        <f>10^12*About!B16</f>
+        <v>1609340000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04E0630F-F7CD-407A-BD2C-1717AC81AE66}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61E5A7D5-142A-4810-9AA4-5512D2D41F36}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5BCFE5-257A-4BCA-B039-704307FF8D47}"/>
 </file>
--- a/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
+++ b/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25311"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_68884C1E2F14BC299629DB3439E8343E69CEDF5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4A5DA8A-E3B5-4197-9CEF-692380DC355A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="21720" windowHeight="14060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19140" windowHeight="7090" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CDCF-PMpPDOU" sheetId="2" r:id="rId2"/>
     <sheet name="CDCF-FTMpFDOU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -23,6 +31,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
+    <t>CDCF Passenger Miles per Passenger Distance Output Unit</t>
+  </si>
+  <si>
+    <t>CDCF Freight Ton Miles per Freight Distance Output Unit</t>
+  </si>
+  <si>
     <t>Source:</t>
   </si>
   <si>
@@ -41,7 +55,19 @@
     <t>desired output unit.</t>
   </si>
   <si>
-    <t>CDCF Passenger Miles per Passenger Distance Output Unit</t>
+    <t>For the U.S. model, the desired output units are:</t>
+  </si>
+  <si>
+    <t>trillion passenger-miles</t>
+  </si>
+  <si>
+    <t>trillion freight ton-miles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For canadian model: </t>
+  </si>
+  <si>
+    <t>km per mile conversion factor</t>
   </si>
   <si>
     <t>passenger distance output unit</t>
@@ -53,32 +79,14 @@
     <t>freight distance output unit</t>
   </si>
   <si>
-    <t>CDCF Freight Ton Miles per Freight Distance Output Unit</t>
-  </si>
-  <si>
-    <t>kilometers per mile</t>
-  </si>
-  <si>
-    <t>For the Canada model, the desired output units are:</t>
-  </si>
-  <si>
-    <t>trillion passenger-kilometers</t>
-  </si>
-  <si>
-    <t>trillion freight tonne-kilometers</t>
-  </si>
-  <si>
-    <t>tonnes per ton</t>
-  </si>
-  <si>
-    <t>freight tonne-miles</t>
+    <t>freight ton-miles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,12 +103,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,10 +132,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,9 +229,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,6 +281,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,160 +473,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
+      <c r="A8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
         <v>1.60934</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>0.90718500000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="3" t="s">
-        <v>7</v>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <f>10^12*About!A16</f>
-        <v>1609340000000</v>
+        <f>10^12</f>
+        <v>1000000000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="3" t="s">
-        <v>9</v>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -586,16 +620,295 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <f>10^12*About!A16*About!A18</f>
-        <v>1459969107900</v>
+        <f>10^12*About!B16</f>
+        <v>1609340000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04E0630F-F7CD-407A-BD2C-1717AC81AE66}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61E5A7D5-142A-4810-9AA4-5512D2D41F36}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5BCFE5-257A-4BCA-B039-704307FF8D47}"/>
 </file>
--- a/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
+++ b/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_68884C1E2F14BC299629DB3439E8343E69CEDF5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4A5DA8A-E3B5-4197-9CEF-692380DC355A}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/web-app/CDCF/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_68884C1E2F14BC299629DB3439E8343E69CEDF5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2ACF3E8-C6D1-4331-B0AD-373235B8733F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19140" windowHeight="7090" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -28,8 +33,79 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Andre Dixon</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{B51F031B-DF0E-4386-A0B8-0B6AABA3EBDE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Andre Dixon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Previously 1E+12.
+Mexico model uses 6.21373E+11 in both sheets for the same conversion*.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Andre Dixon</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{13E9F9CC-273D-4666-9DA0-553EBAD35B5B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Andre Dixon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Previously:
+=10^12*About!B16
+(did not convert imperial tons to metric tonnes)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>CDCF Passenger Miles per Passenger Distance Output Unit</t>
   </si>
@@ -67,26 +143,38 @@
     <t xml:space="preserve">For canadian model: </t>
   </si>
   <si>
-    <t>km per mile conversion factor</t>
-  </si>
-  <si>
     <t>passenger distance output unit</t>
   </si>
   <si>
+    <t>freight distance output unit</t>
+  </si>
+  <si>
+    <t>For the Canadian model, the desired output units are</t>
+  </si>
+  <si>
+    <t>trillion passenger-kilometers</t>
+  </si>
+  <si>
+    <t>trillion freight tonne-kilometers</t>
+  </si>
+  <si>
     <t>passenger-miles</t>
   </si>
   <si>
-    <t>freight distance output unit</t>
-  </si>
-  <si>
     <t>freight ton-miles</t>
+  </si>
+  <si>
+    <t>mile to km conversion factor</t>
+  </si>
+  <si>
+    <t>ton to tonne conversion factor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +190,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -112,7 +213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,28 +575,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -503,52 +604,77 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>1.60934</v>
+        <f>CONVERT(1, "km", "mi")</f>
+        <v>0.62137119223733395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <f>1/0.907185</f>
+        <v>1.1023109950010197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -558,87 +684,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <f>10^12</f>
-        <v>1000000000000</v>
+        <f>10^12*About!B16</f>
+        <v>621371192237.33398</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <f>10^12*About!B16</f>
-        <v>1609340000000</v>
+        <f>10^12*About!B16*About!B17</f>
+        <v>684944297180.10547</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
@@ -651,13 +770,25 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </l787e5950a9249679d0130235a9a791b>
     <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -681,6 +812,8 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -767,6 +900,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -902,13 +1047,40 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04E0630F-F7CD-407A-BD2C-1717AC81AE66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61E5A7D5-142A-4810-9AA4-5512D2D41F36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61E5A7D5-142A-4810-9AA4-5512D2D41F36}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04E0630F-F7CD-407A-BD2C-1717AC81AE66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5BCFE5-257A-4BCA-B039-704307FF8D47}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8167B299-368C-47F2-ABCC-37858D3EB2F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
+++ b/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
@@ -787,8 +787,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -814,6 +814,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -914,6 +915,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1066,21 +1072,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8167B299-368C-47F2-ABCC-37858D3EB2F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81D52F58-8912-4A3F-941F-EFC67294236C}"/>
 </file>